--- a/myCpps_2020/CF_CONTESTS/Round_643Div2/C_prefixSums/CF_1355C_CountTriangles.xlsx
+++ b/myCpps_2020/CF_CONTESTS/Round_643Div2/C_prefixSums/CF_1355C_CountTriangles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\gzshawnliang\competitive-programming\myCpps_2020\CF_CONTESTS\Round_643Div2\C_prefixSums\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{211AC4F7-9ACF-4E09-8EE8-7B359AB9253D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68BB1A7-0BD7-4E41-B3D2-A0E6761864F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1400" yWindow="0" windowWidth="37000" windowHeight="18290" xr2:uid="{6053C1A2-8FC9-49EA-8FAC-C041244A179B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>A</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -189,7 +189,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -249,6 +249,9 @@
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -567,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186A59B6-F954-4813-ADD7-7B65BD9E1C86}">
-  <dimension ref="B1:AG17"/>
+  <dimension ref="B1:AG20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:I16"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -668,17 +671,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
+    <row r="2" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20" t="s">
         <v>3</v>
       </c>
       <c r="T2" s="2"/>
@@ -1354,6 +1363,30 @@
       </c>
     </row>
     <row r="12" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="C12" s="2">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2">
+        <v>15</v>
+      </c>
+      <c r="H12" s="2">
+        <v>14</v>
+      </c>
+      <c r="I12" s="2">
+        <v>12</v>
+      </c>
+      <c r="J12" s="2">
+        <v>9</v>
+      </c>
       <c r="K12" s="2">
         <v>6</v>
       </c>
@@ -1540,6 +1573,118 @@
         <v>0</v>
       </c>
     </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="J18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="19">
+        <v>1</v>
+      </c>
+      <c r="I19" s="19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <f>D19+C20</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" ref="E20" si="1">E19+D20</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" ref="F20" si="2">F19+E20</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" ref="G20" si="3">G19+F20</f>
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" ref="H20" si="4">H19+G20</f>
+        <v>2</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" ref="I20" si="5">I19+H20</f>
+        <v>3</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" ref="J20" si="6">J19+I20</f>
+        <v>3</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" ref="K20" si="7">K19+J20</f>
+        <v>3</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" ref="L20" si="8">L19+K20</f>
+        <v>3</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" ref="M20" si="9">M19+L20</f>
+        <v>3</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" ref="N20" si="10">N19+M20</f>
+        <v>3</v>
+      </c>
+      <c r="O20" s="2">
+        <f t="shared" ref="O20" si="11">O19+N20</f>
+        <v>3</v>
+      </c>
+      <c r="P20" s="2">
+        <f t="shared" ref="P20" si="12">P19+O20</f>
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
